--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Git-SSIS-Shared\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malomotan\Documents\GitHub\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" diskRevisions="1" revisionId="10" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{31096640-7508-4DF7-A365-2B7301ABCD9D}" diskRevisions="1" revisionId="18" version="6">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -471,6 +471,15 @@
     </sheetIdMap>
   </header>
   <header guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" dateTime="2017-10-04T01:48:11" maxSheetId="6" userName="Benson Fabonan" r:id="rId5" minRId="5" maxRId="10">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{31096640-7508-4DF7-A365-2B7301ABCD9D}" dateTime="2017-10-04T03:28:55" maxSheetId="6" userName="Manuel Alberto Lomotan" r:id="rId6" minRId="11" maxRId="18">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -560,6 +569,51 @@
     </nc>
   </rcc>
   <rcv guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="11" sId="3">
+    <nc r="C13">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="3">
+    <nc r="C14">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="3">
+    <nc r="D13">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="3">
+    <nc r="D14">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="3">
+    <nc r="E13">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="3">
+    <nc r="E14">
+      <v>0</v>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="3">
+    <nc r="F13">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="3">
+    <nc r="F14">
+      <v>2</v>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -1355,7 +1409,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1365,7 +1419,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1389,7 +1443,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1919,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1875,7 +1929,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1896,7 +1950,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,11 +2178,11 @@
       </c>
       <c r="N8" s="16">
         <f>I13</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O8" s="16">
         <f>I14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>6</v>
@@ -2163,11 +2217,11 @@
       </c>
       <c r="N9" s="16">
         <f>SUM(N6:N8)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>6</v>
@@ -2253,15 +2307,23 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2269,15 +2331,23 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2332,13 +2402,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2774,13 +2844,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="E10" sqref="E10"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="C13" sqref="C13:G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="C13" sqref="C13:G14"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3216,12 +3286,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malomotan\Documents\GitHub\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{31096640-7508-4DF7-A365-2B7301ABCD9D}" diskRevisions="1" revisionId="18" version="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2C5E94BD-335E-4AEA-9E27-FFC8F5F549F9}" diskRevisions="1" revisionId="20" version="7">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -480,6 +480,15 @@
     </sheetIdMap>
   </header>
   <header guid="{31096640-7508-4DF7-A365-2B7301ABCD9D}" dateTime="2017-10-04T03:28:55" maxSheetId="6" userName="Manuel Alberto Lomotan" r:id="rId6" minRId="11" maxRId="18">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2C5E94BD-335E-4AEA-9E27-FFC8F5F549F9}" dateTime="2017-10-04T03:39:37" maxSheetId="6" userName="Benson Fabonan" r:id="rId7" minRId="19" maxRId="20">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -612,6 +621,21 @@
   <rcc rId="18" sId="3">
     <nc r="F14">
       <v>2</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="19" sId="3">
+    <nc r="F5">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="3">
+    <nc r="F6">
+      <v>0</v>
     </nc>
   </rcc>
 </revisions>
@@ -1409,7 +1433,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1419,7 +1443,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1443,7 +1467,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +1943,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1929,7 +1953,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1950,7 +1974,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,12 +2071,14 @@
       <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16">
         <f>SUM(C5:H5)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="24" t="s">
@@ -2082,7 +2108,9 @@
       <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16">
@@ -2094,7 +2122,7 @@
       </c>
       <c r="N6" s="16">
         <f>I5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" s="16">
         <f>I6</f>
@@ -2217,7 +2245,7 @@
       </c>
       <c r="N9" s="16">
         <f>SUM(N6:N8)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
@@ -2402,13 +2430,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2844,13 +2872,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="C13" sqref="C13:G14"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="E10" sqref="E10"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="C13" sqref="C13:G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3286,12 +3314,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2C5E94BD-335E-4AEA-9E27-FFC8F5F549F9}" diskRevisions="1" revisionId="20" version="7">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AFBFCBDA-AB89-4BE7-8604-B1DFADC92617}" diskRevisions="1" revisionId="22" version="8">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -489,6 +489,15 @@
     </sheetIdMap>
   </header>
   <header guid="{2C5E94BD-335E-4AEA-9E27-FFC8F5F549F9}" dateTime="2017-10-04T03:39:37" maxSheetId="6" userName="Benson Fabonan" r:id="rId7" minRId="19" maxRId="20">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AFBFCBDA-AB89-4BE7-8604-B1DFADC92617}" dateTime="2017-10-04T03:40:54" maxSheetId="6" userName="Benson Fabonan" r:id="rId8" minRId="21" maxRId="22">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -635,6 +644,21 @@
   </rcc>
   <rcc rId="20" sId="3">
     <nc r="F6">
+      <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="21" sId="3">
+    <nc r="G5">
+      <v>0</v>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="3">
+    <nc r="G6">
       <v>0</v>
     </nc>
   </rcc>
@@ -1433,7 +1457,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1443,7 +1467,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1943,7 +1967,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1953,7 +1977,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1974,7 +1998,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2098,9 @@
       <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16">
         <f>SUM(C5:H5)</f>
@@ -2111,7 +2137,9 @@
       <c r="F6" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
@@ -2430,13 +2458,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2872,13 +2900,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="E10" sqref="E10"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="C13" sqref="C13:G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="C13" sqref="C13:G14"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3314,12 +3342,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AFBFCBDA-AB89-4BE7-8604-B1DFADC92617}" diskRevisions="1" revisionId="22" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3E16E234-9C5F-4A1F-AE2A-F6E6846155B7}" diskRevisions="1" revisionId="24" version="9">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -498,6 +498,15 @@
     </sheetIdMap>
   </header>
   <header guid="{AFBFCBDA-AB89-4BE7-8604-B1DFADC92617}" dateTime="2017-10-04T03:40:54" maxSheetId="6" userName="Benson Fabonan" r:id="rId8" minRId="21" maxRId="22">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3E16E234-9C5F-4A1F-AE2A-F6E6846155B7}" dateTime="2017-10-06T00:43:44" maxSheetId="6" userName="Benson Fabonan" r:id="rId9" minRId="23" maxRId="24">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -665,11 +674,27 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="23" sId="3">
+    <nc r="H5">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="3">
+    <nc r="H6">
+      <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Jeric Ryan De Josef" id="-2144758671" dateTime="2017-09-29T21:44:11"/>
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Benson Fabonan" id="-111965015" dateTime="2017-10-04T01:23:59"/>
   <userInfo guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" name="Benson Fabonan" id="-111948917" dateTime="2017-10-04T01:45:45"/>
+  <userInfo guid="{3E16E234-9C5F-4A1F-AE2A-F6E6846155B7}" name="Benson Fabonan" id="-112000366" dateTime="2017-10-06T00:43:14"/>
 </users>
 </file>
 
@@ -1457,7 +1482,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1467,7 +1492,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1967,7 +1992,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1977,7 +2002,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1998,7 +2023,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,10 +2126,12 @@
       <c r="G5" s="16">
         <v>0</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
       <c r="I5" s="16">
         <f>SUM(C5:H5)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="24" t="s">
@@ -2140,7 +2167,9 @@
       <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
         <v>3</v>
@@ -2150,7 +2179,7 @@
       </c>
       <c r="N6" s="16">
         <f>I5</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O6" s="16">
         <f>I6</f>
@@ -2273,7 +2302,7 @@
       </c>
       <c r="N9" s="16">
         <f>SUM(N6:N8)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
@@ -2458,13 +2487,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2900,13 +2929,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="C13" sqref="C13:G14"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="E10" sqref="E10"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="C13" sqref="C13:G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3342,12 +3371,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3E16E234-9C5F-4A1F-AE2A-F6E6846155B7}" diskRevisions="1" revisionId="24" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F5F81CB7-964F-4AE1-8957-C7E06111E093}" diskRevisions="1" revisionId="26" version="10">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -515,11 +515,35 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{F5F81CB7-964F-4AE1-8957-C7E06111E093}" dateTime="2017-10-07T05:26:51" maxSheetId="6" userName="Benson Fabonan" r:id="rId10" minRId="25" maxRId="26">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="25" sId="4">
+    <nc r="C5">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="4">
+    <nc r="C6">
+      <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,11 +714,10 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Jeric Ryan De Josef" id="-2144758671" dateTime="2017-09-29T21:44:11"/>
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Benson Fabonan" id="-111965015" dateTime="2017-10-04T01:23:59"/>
   <userInfo guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" name="Benson Fabonan" id="-111948917" dateTime="2017-10-04T01:45:45"/>
-  <userInfo guid="{3E16E234-9C5F-4A1F-AE2A-F6E6846155B7}" name="Benson Fabonan" id="-112000366" dateTime="2017-10-06T00:43:14"/>
 </users>
 </file>
 
@@ -1482,7 +1505,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1492,7 +1515,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1992,7 +2015,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2002,7 +2025,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2022,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,13 +2510,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2512,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,7 +2624,9 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -2609,7 +2634,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16">
         <f>SUM(C5:H5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="24" t="s">
@@ -2630,7 +2655,9 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -2645,7 +2672,7 @@
       </c>
       <c r="N6" s="16">
         <f>I5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="16">
         <f>I6</f>
@@ -2764,7 +2791,7 @@
       </c>
       <c r="N9" s="16">
         <f>SUM(N6:N8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
@@ -2929,13 +2956,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="E10" sqref="E10"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="C13" sqref="C13:G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="C13" sqref="C13:G14"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3371,12 +3398,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F5F81CB7-964F-4AE1-8957-C7E06111E093}" diskRevisions="1" revisionId="26" version="10">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CC5FFA19-60FF-49F0-BB71-B3CB6096DA1C}" diskRevisions="1" revisionId="30" version="11">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -524,6 +524,15 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{CC5FFA19-60FF-49F0-BB71-B3CB6096DA1C}" dateTime="2017-10-10T04:08:24" maxSheetId="6" userName="Benson Fabonan" r:id="rId11" minRId="27" maxRId="30">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -540,6 +549,31 @@
   </rcc>
   <rcc rId="26" sId="4">
     <nc r="C6">
+      <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="27" sId="4">
+    <nc r="D5">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="4">
+    <nc r="D6">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="4">
+    <nc r="E5">
+      <v>0</v>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="4">
+    <nc r="E6">
       <v>0</v>
     </nc>
   </rcc>
@@ -714,10 +748,11 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Jeric Ryan De Josef" id="-2144758671" dateTime="2017-09-29T21:44:11"/>
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Benson Fabonan" id="-111965015" dateTime="2017-10-04T01:23:59"/>
   <userInfo guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" name="Benson Fabonan" id="-111948917" dateTime="2017-10-04T01:45:45"/>
+  <userInfo guid="{CC5FFA19-60FF-49F0-BB71-B3CB6096DA1C}" name="Benson Fabonan" id="-111980262" dateTime="2017-10-10T04:08:04"/>
 </users>
 </file>
 
@@ -1505,7 +1540,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1515,7 +1550,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2015,7 +2050,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2025,7 +2060,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2510,13 +2545,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2536,7 +2571,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,14 +2662,18 @@
       <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16">
         <f>SUM(C5:H5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="24" t="s">
@@ -2658,25 +2697,29 @@
       <c r="C6" s="16">
         <v>0</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="16">
         <f>I5</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6" s="16">
         <f>I6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>6</v>
@@ -2791,11 +2834,11 @@
       </c>
       <c r="N9" s="16">
         <f>SUM(N6:N8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>6</v>
@@ -2956,13 +2999,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="C13" sqref="C13:G14"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="E10" sqref="E10"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="C13" sqref="C13:G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3398,12 +3441,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CC5FFA19-60FF-49F0-BB71-B3CB6096DA1C}" diskRevisions="1" revisionId="30" version="11">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FAFD3C1E-D1D3-470A-B045-C1E90597F3AD}" diskRevisions="1" revisionId="32" version="12">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -533,6 +533,15 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{FAFD3C1E-D1D3-470A-B045-C1E90597F3AD}" dateTime="2017-10-10T06:18:58" maxSheetId="6" userName="Benson Fabonan" r:id="rId12" minRId="31" maxRId="32">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -575,6 +584,27 @@
   <rcc rId="30" sId="4">
     <nc r="E6">
       <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="31" sId="4">
+    <oc r="E5">
+      <v>0</v>
+    </oc>
+    <nc r="E5">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="4">
+    <oc r="E6">
+      <v>0</v>
+    </oc>
+    <nc r="E6">
+      <v>1</v>
     </nc>
   </rcc>
 </revisions>
@@ -748,11 +778,10 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Jeric Ryan De Josef" id="-2144758671" dateTime="2017-09-29T21:44:11"/>
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Benson Fabonan" id="-111965015" dateTime="2017-10-04T01:23:59"/>
   <userInfo guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" name="Benson Fabonan" id="-111948917" dateTime="2017-10-04T01:45:45"/>
-  <userInfo guid="{CC5FFA19-60FF-49F0-BB71-B3CB6096DA1C}" name="Benson Fabonan" id="-111980262" dateTime="2017-10-10T04:08:04"/>
 </users>
 </file>
 
@@ -2571,7 +2600,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,14 +2695,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16">
         <f>SUM(C5:H5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="24" t="s">
@@ -2701,25 +2730,25 @@
         <v>2</v>
       </c>
       <c r="E6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="16">
         <f>I5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="16">
         <f>I6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>6</v>
@@ -2834,11 +2863,11 @@
       </c>
       <c r="N9" s="16">
         <f>SUM(N6:N8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>6</v>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
     <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FAFD3C1E-D1D3-470A-B045-C1E90597F3AD}" diskRevisions="1" revisionId="32" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{84295E03-DB4D-424E-8AE1-A592E99C7999}" diskRevisions="1" revisionId="34" version="13">
   <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -542,6 +542,15 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{84295E03-DB4D-424E-8AE1-A592E99C7999}" dateTime="2017-10-11T05:33:53" maxSheetId="6" userName="Benson Fabonan" r:id="rId13" minRId="33" maxRId="34">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -607,6 +616,23 @@
       <v>1</v>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="33" sId="4">
+    <nc r="F5">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="4">
+    <nc r="F6">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcv guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" action="delete"/>
+  <rcv guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" action="add"/>
 </revisions>
 </file>
 
@@ -777,11 +803,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Jeric Ryan De Josef" id="-2144758671" dateTime="2017-09-29T21:44:11"/>
   <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Benson Fabonan" id="-111965015" dateTime="2017-10-04T01:23:59"/>
   <userInfo guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" name="Benson Fabonan" id="-111948917" dateTime="2017-10-04T01:45:45"/>
+  <userInfo guid="{84295E03-DB4D-424E-8AE1-A592E99C7999}" name="Benson Fabonan" id="-111961823" dateTime="2017-10-11T05:33:27"/>
 </users>
 </file>
 
@@ -1574,12 +1601,12 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2084,13 +2111,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
-      <selection activeCell="G21" sqref="G21"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="H11" sqref="H11"/>
+    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
+      <selection activeCell="G21" sqref="G21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -2600,7 +2627,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,12 +2724,14 @@
       <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16">
         <f>SUM(C5:H5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="24" t="s">
@@ -2732,23 +2761,25 @@
       <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="16">
         <f>I5</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="16">
         <f>I6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>6</v>
@@ -2863,11 +2894,11 @@
       </c>
       <c r="N9" s="16">
         <f>SUM(N6:N8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>6</v>
@@ -3029,7 +3060,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,15 @@
     <sheet name="Tally_20170928" sheetId="3" r:id="rId3"/>
     <sheet name="Tally_20171005" sheetId="4" r:id="rId4"/>
     <sheet name="Tally_20171012" sheetId="5" r:id="rId5"/>
+    <sheet name="Tally_20171019" sheetId="6" r:id="rId6"/>
+    <sheet name="Tally_20171026" sheetId="7" r:id="rId7"/>
+    <sheet name="Tally_20171102" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1035" activeSheetId="3"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -338,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +401,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,386 +436,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{84295E03-DB4D-424E-8AE1-A592E99C7999}" diskRevisions="1" revisionId="34" version="13">
-  <header guid="{A9502BF7-CEAC-41BD-8BA9-F19A93511DBE}" dateTime="2017-09-29T21:44:11" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId1">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0CE68987-16A2-4A7D-B0F2-3D1072AB69BE}" dateTime="2017-09-29T22:04:49" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId2" minRId="1" maxRId="2">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0BA89637-022C-48A5-BDDB-9C6E916295DF}" dateTime="2017-09-30T00:03:38" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId3" minRId="3">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" dateTime="2017-09-30T00:18:42" maxSheetId="6" userName="Jeric Ryan De Josef" r:id="rId4" minRId="4">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" dateTime="2017-10-04T01:48:11" maxSheetId="6" userName="Benson Fabonan" r:id="rId5" minRId="5" maxRId="10">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{31096640-7508-4DF7-A365-2B7301ABCD9D}" dateTime="2017-10-04T03:28:55" maxSheetId="6" userName="Manuel Alberto Lomotan" r:id="rId6" minRId="11" maxRId="18">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2C5E94BD-335E-4AEA-9E27-FFC8F5F549F9}" dateTime="2017-10-04T03:39:37" maxSheetId="6" userName="Benson Fabonan" r:id="rId7" minRId="19" maxRId="20">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AFBFCBDA-AB89-4BE7-8604-B1DFADC92617}" dateTime="2017-10-04T03:40:54" maxSheetId="6" userName="Benson Fabonan" r:id="rId8" minRId="21" maxRId="22">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3E16E234-9C5F-4A1F-AE2A-F6E6846155B7}" dateTime="2017-10-06T00:43:44" maxSheetId="6" userName="Benson Fabonan" r:id="rId9" minRId="23" maxRId="24">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F5F81CB7-964F-4AE1-8957-C7E06111E093}" dateTime="2017-10-07T05:26:51" maxSheetId="6" userName="Benson Fabonan" r:id="rId10" minRId="25" maxRId="26">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CC5FFA19-60FF-49F0-BB71-B3CB6096DA1C}" dateTime="2017-10-10T04:08:24" maxSheetId="6" userName="Benson Fabonan" r:id="rId11" minRId="27" maxRId="30">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FAFD3C1E-D1D3-470A-B045-C1E90597F3AD}" dateTime="2017-10-10T06:18:58" maxSheetId="6" userName="Benson Fabonan" r:id="rId12" minRId="31" maxRId="32">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{84295E03-DB4D-424E-8AE1-A592E99C7999}" dateTime="2017-10-11T05:33:53" maxSheetId="6" userName="Benson Fabonan" r:id="rId13" minRId="33" maxRId="34">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="25" sId="4">
-    <nc r="C5">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="4">
-    <nc r="C6">
-      <v>0</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="27" sId="4">
-    <nc r="D5">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="4">
-    <nc r="D6">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="4">
-    <nc r="E5">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="4">
-    <nc r="E6">
-      <v>0</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="31" sId="4">
-    <oc r="E5">
-      <v>0</v>
-    </oc>
-    <nc r="E5">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="4">
-    <oc r="E6">
-      <v>0</v>
-    </oc>
-    <nc r="E6">
-      <v>1</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="33" sId="4">
-    <nc r="F5">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="4">
-    <nc r="F6">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcv guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" action="delete"/>
-  <rcv guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="3">
-    <nc r="D9">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="3">
-    <nc r="D10">
-      <v>0</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="3" sId="3">
-    <oc r="D10">
-      <v>0</v>
-    </oc>
-    <nc r="D10">
-      <v>1</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="4" sId="3">
-    <oc r="D9">
-      <v>1</v>
-    </oc>
-    <nc r="D9">
-      <v>2</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="5" sId="3">
-    <nc r="C5">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="3">
-    <nc r="C6">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="3">
-    <nc r="D5">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="3">
-    <nc r="D6">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="3">
-    <nc r="E5">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="3">
-    <nc r="E6">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcv guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="11" sId="3">
-    <nc r="C13">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="3">
-    <nc r="C14">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="3">
-    <nc r="D13">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="3">
-    <nc r="D14">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="3">
-    <nc r="E13">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="3">
-    <nc r="E14">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="3">
-    <nc r="F13">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="3">
-    <nc r="F14">
-      <v>2</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="19" sId="3">
-    <nc r="F5">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="3">
-    <nc r="F6">
-      <v>0</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="21" sId="3">
-    <nc r="G5">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="3">
-    <nc r="G6">
-      <v>0</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="23" sId="3">
-    <nc r="H5">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="3">
-    <nc r="H6">
-      <v>0</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
-  <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Jeric Ryan De Josef" id="-2144758671" dateTime="2017-09-29T21:44:11"/>
-  <userInfo guid="{C94F292E-DFF6-48AF-9BAB-56014F57DFC0}" name="Benson Fabonan" id="-111965015" dateTime="2017-10-04T01:23:59"/>
-  <userInfo guid="{7AB22875-E732-4E6E-95B4-D451FF1B42BE}" name="Benson Fabonan" id="-111948917" dateTime="2017-10-04T01:45:45"/>
-  <userInfo guid="{84295E03-DB4D-424E-8AE1-A592E99C7999}" name="Benson Fabonan" id="-111961823" dateTime="2017-10-11T05:33:27"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,7 +820,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1235,7 +861,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +904,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +946,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +988,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1409,7 +1035,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +1063,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1088,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1487,7 +1113,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1517,7 +1143,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1171,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1196,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1596,17 +1222,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1712,7 +1338,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1751,7 +1377,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1418,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1460,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1502,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1923,7 +1549,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1577,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +1602,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +1627,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2029,7 +1655,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +1681,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +1706,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2106,18 +1732,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="H11" sqref="H11"/>
+    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
+      <selection activeCell="G21" sqref="G21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}">
-      <selection activeCell="G21" sqref="G21"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -2134,24 +1760,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10" customWidth="1"/>
-    <col min="16" max="17" width="19.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2159,11 +1785,11 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="9">
         <f>B1</f>
         <v>43006</v>
@@ -2177,25 +1803,21 @@
         <v>43010</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:H3" si="0">E3+1</f>
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
         <v>43011</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" si="0"/>
         <v>43012</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" si="0"/>
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="str">
         <f>TEXT(C3,"DDDD")</f>
         <v>Thursday</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:H4" si="1">TEXT(D3,"DDDD")</f>
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
         <v>Friday</v>
       </c>
       <c r="E4" s="10" t="str">
@@ -2210,16 +1832,12 @@
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="H4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Thursday</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2241,28 +1859,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="16">
-        <v>2</v>
-      </c>
-      <c r="I5" s="16">
-        <f>SUM(C5:H5)</f>
-        <v>10</v>
-      </c>
-      <c r="M5" s="1"/>
+        <f>SUM(C5:G5)</f>
+        <v>8</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="N5" s="24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2282,32 +1897,29 @@
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>0</v>
+        <f>SUM(C6:G6)</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>8</v>
       </c>
       <c r="N6" s="16">
-        <f>I5</f>
-        <v>10</v>
-      </c>
-      <c r="O6" s="16">
-        <f>I6</f>
-        <v>3</v>
+        <f>H6</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2326,30 +1938,27 @@
       <c r="G7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="M7" s="5" t="s">
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>20</v>
+      </c>
       <c r="N7" s="16">
-        <f>I9</f>
-        <v>3</v>
-      </c>
-      <c r="O7" s="16">
-        <f>I10</f>
-        <v>1</v>
+        <f>H10</f>
+        <v>15</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2368,69 +1977,71 @@
       <c r="G8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="M8" s="5" t="s">
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>10</v>
+      </c>
       <c r="N8" s="16">
-        <f>I13</f>
-        <v>6</v>
-      </c>
-      <c r="O8" s="16">
-        <f>I14</f>
+        <f>H14</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16">
         <v>4</v>
       </c>
-      <c r="P8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M9" s="23" t="s">
+      <c r="F9" s="16">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>20</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>38</v>
+      </c>
       <c r="N9" s="16">
-        <f>SUM(N6:N8)</f>
-        <v>19</v>
-      </c>
-      <c r="O9" s="16">
-        <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
-        <v>8</v>
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>23</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2438,19 +2049,24 @@
         <v>0</v>
       </c>
       <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2469,13 +2085,10 @@
       <c r="G11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2494,13 +2107,10 @@
       <c r="G12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2518,15 +2128,16 @@
       <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="G13" s="16">
+        <v>4</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2542,15 +2153,16 @@
       <c r="F14" s="16">
         <v>2</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2569,13 +2181,10 @@
       <c r="G15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2594,20 +2203,17 @@
       <c r="G16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2624,24 +2230,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10" customWidth="1"/>
-    <col min="16" max="17" width="19.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2649,11 +2255,11 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="9">
         <f>B1</f>
         <v>43013</v>
@@ -2667,25 +2273,21 @@
         <v>43017</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:H3" si="0">E3+1</f>
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
         <v>43018</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" si="0"/>
         <v>43019</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" si="0"/>
-        <v>43020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="str">
         <f>TEXT(C3,"DDDD")</f>
         <v>Thursday</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:H4" si="1">TEXT(D3,"DDDD")</f>
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
         <v>Friday</v>
       </c>
       <c r="E4" s="10" t="str">
@@ -2700,16 +2302,12 @@
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="H4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Thursday</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2728,27 +2326,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16">
-        <f>SUM(C5:H5)</f>
-        <v>6</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="N5" s="24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2765,31 +2362,30 @@
         <v>1</v>
       </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
-        <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
         <v>4</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>0</v>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>6</v>
       </c>
       <c r="N6" s="16">
-        <f>I5</f>
-        <v>6</v>
-      </c>
-      <c r="O6" s="16">
-        <f>I6</f>
+        <f>H6</f>
         <v>4</v>
       </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="P6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2808,30 +2404,27 @@
       <c r="G7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="M7" s="5" t="s">
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>10</v>
+      </c>
       <c r="N7" s="16">
-        <f>I9</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <f>I10</f>
-        <v>0</v>
+        <f>H10</f>
+        <v>7</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2850,81 +2443,94 @@
       <c r="G8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="M8" s="5" t="s">
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
       <c r="N8" s="16">
-        <f>I13</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <f>I14</f>
-        <v>0</v>
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="23" t="s">
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>10</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>16</v>
+      </c>
       <c r="N9" s="16">
-        <f>SUM(N6:N8)</f>
-        <v>6</v>
-      </c>
-      <c r="O9" s="16">
-        <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
-        <v>4</v>
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>11</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2943,13 +2549,10 @@
       <c r="G11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2968,13 +2571,10 @@
       <c r="G12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2985,14 +2585,13 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3001,14 +2600,13 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3027,13 +2625,10 @@
       <c r="G15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3052,20 +2647,17 @@
       <c r="G16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="C13" sqref="C13:G14"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3082,24 +2674,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10" customWidth="1"/>
-    <col min="16" max="17" width="19.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3107,11 +2699,11 @@
         <v>43020</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="9">
         <f>B1</f>
         <v>43020</v>
@@ -3125,25 +2717,21 @@
         <v>43024</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:H3" si="0">E3+1</f>
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
         <v>43025</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" si="0"/>
         <v>43026</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" si="0"/>
-        <v>43027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="str">
         <f>TEXT(C3,"DDDD")</f>
         <v>Thursday</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:H4" si="1">TEXT(D3,"DDDD")</f>
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
         <v>Friday</v>
       </c>
       <c r="E4" s="10" t="str">
@@ -3158,16 +2746,12 @@
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="H4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Thursday</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3178,27 +2762,26 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16">
-        <f>SUM(C5:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="N5" s="24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3207,31 +2790,30 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
-        <f t="shared" ref="I6:I14" si="2">SUM(C6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
         <v>0</v>
       </c>
       <c r="N6" s="16">
-        <f>I5</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <f>I6</f>
-        <v>0</v>
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3250,30 +2832,27 @@
       <c r="G7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="M7" s="5" t="s">
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
       <c r="N7" s="16">
-        <f>I9</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <f>I10</f>
-        <v>0</v>
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3292,30 +2871,27 @@
       <c r="G8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="M8" s="5" t="s">
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
       <c r="N8" s="16">
-        <f>I13</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <f>I14</f>
-        <v>0</v>
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3326,31 +2902,30 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="23" t="s">
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
       <c r="N9" s="16">
-        <f>SUM(N6:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <f t="shared" ref="O9" si="3">SUM(O6:O8)</f>
-        <v>0</v>
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3359,14 +2934,13 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3385,13 +2959,10 @@
       <c r="G11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3410,13 +2981,10 @@
       <c r="G12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3427,14 +2995,13 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3443,14 +3010,13 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3469,13 +3035,10 @@
       <c r="G15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3494,19 +3057,16 @@
       <c r="G16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3520,4 +3080,1198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43027</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43028</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43031</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43032</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43034</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43035</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43038</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43039</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43041</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43042</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43045</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43046</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,11 +2449,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -2493,11 +2493,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2580,14 +2580,22 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2595,14 +2603,22 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2651,13 +2667,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3061,13 +3077,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
@@ -2592,10 +2592,12 @@
       <c r="F13" s="16">
         <v>3</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2615,7 +2617,9 @@
       <c r="F14" s="16">
         <v>0</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
         <v>2</v>
@@ -2667,13 +2671,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3077,13 +3081,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2233,7 +2233,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
@@ -2593,11 +2593,11 @@
         <v>3</v>
       </c>
       <c r="G13" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2671,13 +2671,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3081,13 +3081,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2233,7 +2233,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,10 +2325,12 @@
       <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16">
+        <v>4</v>
+      </c>
       <c r="H5" s="16">
         <f>SUM(C5:G5)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="24" t="s">
@@ -2361,21 +2363,23 @@
       <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
       <c r="H6" s="16">
         <f>SUM(C6:G6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="16">
         <f>H5</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N6" s="16">
         <f>H6</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>6</v>
@@ -2493,11 +2497,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2671,13 +2675,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3081,13 +3085,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,13 +2675,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2700,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E24:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -2921,25 +2921,35 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2953,14 +2963,24 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3085,13 +3105,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2675,13 +2675,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2701,7 +2701,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3034,14 +3034,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3049,14 +3059,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>8</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3105,13 +3125,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2675,13 +2675,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2701,7 +2701,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3047,11 +3047,11 @@
         <v>4</v>
       </c>
       <c r="G13" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3072,11 +3072,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3125,13 +3125,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2675,13 +2675,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2701,7 +2701,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3047,11 +3047,11 @@
         <v>4</v>
       </c>
       <c r="G13" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3072,11 +3072,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3125,13 +3125,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
     <sheet name="Tally_20170921" sheetId="2" r:id="rId2"/>
     <sheet name="Tally_20170928" sheetId="3" r:id="rId3"/>
     <sheet name="Tally_20171005" sheetId="4" r:id="rId4"/>
-    <sheet name="Tally_20171012" sheetId="5" r:id="rId5"/>
-    <sheet name="Tally_20171019" sheetId="6" r:id="rId6"/>
+    <sheet name="Tally_20171019" sheetId="6" r:id="rId5"/>
+    <sheet name="Tally_20171012" sheetId="5" r:id="rId6"/>
     <sheet name="Tally_20171026" sheetId="7" r:id="rId7"/>
     <sheet name="Tally_20171102" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2675,13 +2675,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2697,456 +2697,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10" customWidth="1"/>
-    <col min="15" max="16" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="20">
-        <v>43020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="9">
-        <f>B1</f>
-        <v>43020</v>
-      </c>
-      <c r="D3" s="9">
-        <f>C3+1</f>
-        <v>43021</v>
-      </c>
-      <c r="E3" s="9">
-        <f>D3+3</f>
-        <v>43024</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:G3" si="0">E3+1</f>
-        <v>43025</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" si="0"/>
-        <v>43026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="str">
-        <f>TEXT(C3,"DDDD")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
-        <v>Friday</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Monday</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="G4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Wednesday</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f>SUM(C5:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16">
-        <f>SUM(C6:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <f>H6</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="L7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="16">
-        <f>H9</f>
-        <v>16</v>
-      </c>
-      <c r="N7" s="16">
-        <f>H10</f>
-        <v>12</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="L8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16">
-        <f>H13</f>
-        <v>18</v>
-      </c>
-      <c r="N8" s="16">
-        <f>H14</f>
-        <v>11</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3</v>
-      </c>
-      <c r="D9" s="16">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3</v>
-      </c>
-      <c r="G9" s="16">
-        <v>4</v>
-      </c>
-      <c r="H9" s="16">
-        <f>SUM(C9:G9)</f>
-        <v>16</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="16">
-        <f>SUM(M6:M8)</f>
-        <v>34</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>23</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>4</v>
-      </c>
-      <c r="H10" s="16">
-        <f>SUM(C10:G10)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16">
-        <v>4</v>
-      </c>
-      <c r="D13" s="16">
-        <v>4</v>
-      </c>
-      <c r="E13" s="16">
-        <v>4</v>
-      </c>
-      <c r="F13" s="16">
-        <v>4</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2</v>
-      </c>
-      <c r="H13" s="16">
-        <f>SUM(C13:G13)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>8</v>
-      </c>
-      <c r="H14" s="16">
-        <f>SUM(C14:G14)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="3">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -3541,6 +3091,476 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43020</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43021</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43024</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43025</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>9</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>9</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>16</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>12</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>18</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>11</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>16</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>43</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>26</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>8</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1222,7 +1222,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1732,7 +1732,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2207,13 +2207,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2675,13 +2675,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3098,7 +3098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3543,13 +3543,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3568,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,11 +3730,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -3789,25 +3789,33 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3821,14 +3829,22 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
     <sheet name="Tally_20170921" sheetId="2" r:id="rId2"/>
     <sheet name="Tally_20170928" sheetId="3" r:id="rId3"/>
     <sheet name="Tally_20171005" sheetId="4" r:id="rId4"/>
-    <sheet name="Tally_20171019" sheetId="6" r:id="rId5"/>
-    <sheet name="Tally_20171012" sheetId="5" r:id="rId6"/>
+    <sheet name="Tally_20171012" sheetId="5" r:id="rId5"/>
+    <sheet name="Tally_20171019" sheetId="6" r:id="rId6"/>
     <sheet name="Tally_20171026" sheetId="7" r:id="rId7"/>
     <sheet name="Tally_20171102" sheetId="8" r:id="rId8"/>
+    <sheet name="Tally_20171019 (2)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -341,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -397,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,7 +824,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -861,7 +865,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -904,7 +908,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -946,7 +950,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -988,7 +992,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1035,7 +1039,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +1067,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1092,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1117,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1143,7 +1147,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1175,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1200,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1232,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1338,7 +1342,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1377,7 +1381,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1418,7 +1422,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1464,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1502,7 +1506,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1549,7 +1553,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1581,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1606,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1631,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1655,7 +1659,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1685,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1710,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1742,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1837,7 +1841,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1877,7 +1881,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1923,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1962,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +2001,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2041,7 +2045,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2070,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2092,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2114,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2137,7 +2141,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2166,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2184,7 +2188,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2207,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2307,7 +2311,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2347,7 +2351,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2393,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2428,7 +2432,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +2471,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2511,7 +2515,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +2538,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2556,7 +2560,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2578,7 +2582,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2605,7 +2609,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2634,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2652,7 +2656,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2675,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2697,404 +2701,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10" customWidth="1"/>
-    <col min="15" max="16" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="20">
-        <v>43027</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="9">
-        <f>B1</f>
-        <v>43027</v>
-      </c>
-      <c r="D3" s="9">
-        <f>C3+1</f>
-        <v>43028</v>
-      </c>
-      <c r="E3" s="9">
-        <f>D3+3</f>
-        <v>43031</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:G3" si="0">E3+1</f>
-        <v>43032</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" si="0"/>
-        <v>43033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="str">
-        <f>TEXT(C3,"DDDD")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
-        <v>Friday</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Monday</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="G4" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Wednesday</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f>SUM(C5:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16">
-        <f>SUM(C6:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <f>H6</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="L7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="16">
-        <f>H9</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <f>H10</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="L8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16">
-        <f>H13</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <f>H14</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f>SUM(C9:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="16">
-        <f>SUM(M6:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f>SUM(C10:G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16">
-        <f>SUM(C13:G13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f>SUM(C14:G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -3173,7 +2779,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3213,7 +2819,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3255,7 +2861,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3294,7 +2900,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +2939,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3377,7 +2983,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3008,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3424,7 +3030,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3446,7 +3052,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3473,7 +3079,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3498,7 +3104,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3520,7 +3126,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3543,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3564,12 +3170,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,6 +3194,436 @@
         <v>9</v>
       </c>
       <c r="B1" s="20">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43027</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43028</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43031</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43032</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>7</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>7</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>12</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>10</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>15</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>17</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
         <v>43034</v>
       </c>
     </row>
@@ -3643,7 +3679,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3673,7 +3709,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3705,7 +3741,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3744,7 +3780,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3783,7 +3819,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3825,7 +3861,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3848,7 +3884,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3870,7 +3906,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3892,7 +3928,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3909,7 +3945,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3924,7 +3960,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3946,7 +3982,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4057,7 +4093,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4087,7 +4123,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4119,7 +4155,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4158,7 +4194,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4197,7 +4233,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4231,7 +4267,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4246,7 +4282,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4268,7 +4304,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4290,7 +4326,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4307,7 +4343,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4322,7 +4358,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4344,7 +4380,421 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43034</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43035</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43038</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43039</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>12</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>10</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>12</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>10</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3175,7 +3175,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,11 +3391,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -3433,11 +3433,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3520,14 +3520,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>6</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3535,14 +3545,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>7</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3175,7 +3175,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,11 +3391,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -3433,11 +3433,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3533,11 +3533,11 @@
         <v>4</v>
       </c>
       <c r="G13" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3558,11 +3558,11 @@
         <v>2</v>
       </c>
       <c r="G14" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3174,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3624,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,11 +3786,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -3846,32 +3846,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
       </c>
       <c r="F9" s="16">
-        <v>3</v>
-      </c>
-      <c r="G9" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3886,21 +3888,23 @@
         <v>3</v>
       </c>
       <c r="C10" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3624,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4042,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -4263,25 +4263,35 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="16">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4295,14 +4305,24 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4042,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,11 +4243,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -4287,11 +4287,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4376,14 +4376,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4391,14 +4401,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4460,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,11 +4681,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -4703,11 +4723,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4790,14 +4810,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4805,14 +4835,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4042,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,14 +4123,24 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
       <c r="H5" s="16">
         <f>SUM(C5:G5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="25" t="s">
@@ -4151,25 +4161,35 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="16">
         <f>SUM(C6:G6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="16">
         <f>H5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="16">
         <f>H6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>6</v>
@@ -4287,11 +4307,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4480,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3624,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,11 +3825,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -3869,11 +3869,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3958,14 +3958,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3973,14 +3983,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4042,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4287,7 @@
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -4311,7 +4331,7 @@
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4397,19 +4417,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
@@ -4425,20 +4445,20 @@
         <v>0</v>
       </c>
       <c r="D14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
     <sheet name="Tally_20171019" sheetId="6" r:id="rId6"/>
     <sheet name="Tally_20171026" sheetId="7" r:id="rId7"/>
     <sheet name="Tally_20171102" sheetId="8" r:id="rId8"/>
-    <sheet name="Tally_20171019 (2)" sheetId="9" r:id="rId9"/>
+    <sheet name="Tally_20171109" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1226,7 +1226,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1736,7 +1736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2211,13 +2211,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2679,13 +2679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3149,13 +3149,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3175,7 +3175,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C5" sqref="C5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -4520,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,7 +4540,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="20">
-        <v>43034</v>
+        <v>43048</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4550,23 +4550,23 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="9">
         <f>B1</f>
-        <v>43034</v>
+        <v>43048</v>
       </c>
       <c r="D3" s="9">
         <f>C3+1</f>
-        <v>43035</v>
+        <v>43049</v>
       </c>
       <c r="E3" s="9">
         <f>D3+3</f>
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:G3" si="0">E3+1</f>
-        <v>43039</v>
+        <v>43053</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" si="0"/>
-        <v>43040</v>
+        <v>43054</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4601,14 +4601,24 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
       <c r="H5" s="16">
         <f>SUM(C5:G5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="26" t="s">
@@ -4629,11 +4639,21 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="16">
         <f>SUM(C6:G6)</f>
         <v>0</v>
@@ -4643,7 +4663,7 @@
       </c>
       <c r="M6" s="16">
         <f>H5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="16">
         <f>H6</f>
@@ -4682,11 +4702,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -4721,7 +4741,7 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
@@ -4742,32 +4762,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="16">
         <v>3</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4782,21 +4804,23 @@
         <v>3</v>
       </c>
       <c r="C10" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4851,23 +4875,23 @@
         <v>2</v>
       </c>
       <c r="C13" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="16">
         <v>3</v>
       </c>
       <c r="E13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4876,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -4888,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <sheet name="Tally_20171026" sheetId="7" r:id="rId7"/>
     <sheet name="Tally_20171102" sheetId="8" r:id="rId8"/>
     <sheet name="Tally_20171109" sheetId="9" r:id="rId9"/>
+    <sheet name="Tally_20171116" sheetId="10" r:id="rId10"/>
+    <sheet name="Tally_20171123" sheetId="11" r:id="rId11"/>
+    <sheet name="Tally_20171130" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -342,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,7 +830,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -865,7 +871,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -908,7 +914,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -950,7 +956,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -992,7 +998,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1039,7 +1045,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1073,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1098,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1123,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1147,7 +1153,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1181,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1206,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1252,6 +1258,1220 @@
   <ignoredErrors>
     <ignoredError sqref="E3" formula="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43055</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43056</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43059</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43060</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>14</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>10</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>14</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>14</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>10</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43062</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43063</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43066</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43067</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43069</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43070</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43073</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43074</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1342,7 +2562,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1381,7 +2601,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +2642,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1464,7 +2684,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +2726,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1553,7 +2773,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +2801,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +2826,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +2851,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1659,7 +2879,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +2905,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +2930,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +2956,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1746,7 +2966,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1841,7 +3061,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1881,7 +3101,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +3143,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1962,7 +3182,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +3221,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2045,7 +3265,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2070,7 +3290,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +3312,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2114,7 +3334,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2141,7 +3361,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2166,7 +3386,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +3408,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2211,13 +3431,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2311,7 +3531,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2351,7 +3571,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2393,7 +3613,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +3652,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2471,7 +3691,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2515,7 +3735,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2538,7 +3758,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2560,7 +3780,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +3802,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2609,7 +3829,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2634,7 +3854,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +3876,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2679,13 +3899,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -2779,7 +3999,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2819,7 +4039,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2861,7 +4081,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2900,7 +4120,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +4159,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2983,7 +4203,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3008,7 +4228,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3030,7 +4250,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +4272,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3079,7 +4299,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +4324,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3126,7 +4346,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3149,13 +4369,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3249,7 +4469,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3287,7 +4507,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3327,7 +4547,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3366,7 +4586,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3405,7 +4625,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3447,7 +4667,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3470,7 +4690,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3492,7 +4712,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3514,7 +4734,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3541,7 +4761,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3566,7 +4786,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3588,7 +4808,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3699,7 +4919,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3729,7 +4949,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3761,7 +4981,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3800,7 +5020,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +5059,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3883,7 +5103,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3908,7 +5128,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3930,7 +5150,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +5172,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3979,7 +5199,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4004,7 +5224,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4026,7 +5246,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4137,7 +5357,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4177,7 +5397,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4219,7 +5439,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4258,7 +5478,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4297,7 +5517,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4341,7 +5561,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4366,7 +5586,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4388,7 +5608,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4410,7 +5630,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4437,7 +5657,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4462,7 +5682,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4484,7 +5704,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +5740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -4595,7 +5815,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4635,7 +5855,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4677,7 +5897,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4716,7 +5936,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4755,7 +5975,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4799,7 +6019,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4824,7 +6044,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4846,7 +6066,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4868,7 +6088,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4895,7 +6115,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4920,7 +6140,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4942,7 +6162,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,11 +1466,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -1510,11 +1510,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -1599,14 +1599,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1614,14 +1624,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2956,7 +2976,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2966,7 +2986,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3431,13 +3451,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3899,13 +3919,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4369,13 +4389,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,11 +1466,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -1510,11 +1510,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -1612,11 +1612,11 @@
         <v>6</v>
       </c>
       <c r="G13" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1637,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2986,7 +2986,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3451,13 +3451,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3919,13 +3919,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4389,13 +4389,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,14 +1346,24 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="16">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
       <c r="H5" s="16">
         <f>SUM(C5:G5)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="27" t="s">
@@ -1374,25 +1384,35 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="16">
         <f>SUM(C6:G6)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="16">
         <f>H5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N6" s="16">
         <f>H6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>6</v>
@@ -1510,11 +1530,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2976,7 +2996,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2986,7 +3006,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3451,13 +3471,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3919,13 +3939,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4389,13 +4409,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,11 +1885,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -1944,25 +1944,35 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -1976,14 +1986,24 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2996,7 +3016,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3006,7 +3026,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3471,13 +3491,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3939,13 +3959,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4409,13 +4429,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,14 +1804,24 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
       <c r="H5" s="16">
         <f>SUM(C5:G5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="27" t="s">
@@ -1832,25 +1842,35 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="16">
         <f>SUM(C6:G6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="16">
         <f>H5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N6" s="16">
         <f>H6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>6</v>
@@ -1968,11 +1988,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3016,7 +3036,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3026,7 +3046,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3491,13 +3511,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3959,13 +3979,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4429,13 +4449,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,11 +1944,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -1988,11 +1988,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2077,14 +2077,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>4</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2092,14 +2102,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3036,7 +3056,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3046,7 +3066,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3511,13 +3531,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3979,13 +3999,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4449,13 +4469,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,7 +1232,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2181,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2495,14 +2495,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2510,14 +2520,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>6</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3056,7 +3076,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3066,7 +3086,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3531,13 +3551,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3999,13 +4019,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4469,13 +4489,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,16 @@
     <sheet name="Tally_20171116" sheetId="10" r:id="rId10"/>
     <sheet name="Tally_20171123" sheetId="11" r:id="rId11"/>
     <sheet name="Tally_20171130" sheetId="12" r:id="rId12"/>
+    <sheet name="Tally_20171207" sheetId="13" r:id="rId13"/>
+    <sheet name="Tally_20171214" sheetId="14" r:id="rId14"/>
+    <sheet name="Tally_20171221" sheetId="15" r:id="rId15"/>
+    <sheet name="Tally_20171228" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -345,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,6 +405,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,7 +837,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -871,7 +878,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -914,7 +921,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -956,7 +963,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -998,7 +1005,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1045,7 +1052,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1080,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1105,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1130,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1153,7 +1160,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1181,7 +1188,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1213,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1239,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1242,7 +1249,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1340,7 +1347,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1380,7 +1387,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1429,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1507,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1544,7 +1551,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1576,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1598,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1620,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1640,7 +1647,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1672,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1694,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1805,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1838,7 +1845,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1880,7 +1887,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1919,7 +1926,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1965,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2002,7 +2009,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2027,7 +2034,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2056,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2078,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2098,7 +2105,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2123,7 +2130,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2152,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2189,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,7 +2263,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2286,7 +2293,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2318,7 +2325,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2343,11 +2350,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -2357,7 +2364,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2396,7 +2403,445 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>17</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>22</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>17</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>6</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43076</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43077</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43080</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43081</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2416,11 +2861,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2430,7 +2875,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +2890,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2912,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2489,59 +2934,39 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>2</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2</v>
-      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>3</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16">
-        <v>6</v>
-      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2563,7 +2988,1201 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43083</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43084</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43087</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43088</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43090</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43091</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43094</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43095</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43097</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43098</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43101</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43102</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +4301,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2721,7 +4340,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +4381,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2804,7 +4423,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +4465,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2893,7 +4512,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2921,7 +4540,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2946,7 +4565,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2971,7 +4590,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2999,7 +4618,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3025,7 +4644,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3050,7 +4669,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +4695,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3086,7 +4705,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3181,7 +4800,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3221,7 +4840,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3263,7 +4882,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3302,7 +4921,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3341,7 +4960,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3385,7 +5004,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3410,7 +5029,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3432,7 +5051,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3454,7 +5073,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3481,7 +5100,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3506,7 +5125,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3528,7 +5147,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3551,13 +5170,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -3651,7 +5270,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3691,7 +5310,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3733,7 +5352,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3772,7 +5391,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +5430,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3855,7 +5474,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3878,7 +5497,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +5519,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3922,7 +5541,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3949,7 +5568,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3974,7 +5593,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3996,7 +5615,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4019,13 +5638,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4119,7 +5738,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4159,7 +5778,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4201,7 +5820,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +5859,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4279,7 +5898,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4323,7 +5942,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4348,7 +5967,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4370,7 +5989,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4392,7 +6011,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4419,7 +6038,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4444,7 +6063,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4466,7 +6085,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4489,13 +6108,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -4589,7 +6208,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4627,7 +6246,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4667,7 +6286,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4706,7 +6325,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4745,7 +6364,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4787,7 +6406,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4810,7 +6429,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4832,7 +6451,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +6473,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4881,7 +6500,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4906,7 +6525,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4928,7 +6547,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5039,7 +6658,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5069,7 +6688,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5101,7 +6720,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5140,7 +6759,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +6798,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5223,7 +6842,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5248,7 +6867,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5270,7 +6889,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5292,7 +6911,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5319,7 +6938,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5344,7 +6963,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5366,7 +6985,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5477,7 +7096,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5517,7 +7136,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5559,7 +7178,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5598,7 +7217,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5637,7 +7256,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5681,7 +7300,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5706,7 +7325,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5728,7 +7347,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5750,7 +7369,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5777,7 +7396,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5802,7 +7421,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5824,7 +7443,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5935,7 +7554,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5975,7 +7594,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6017,7 +7636,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6056,7 +7675,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6095,7 +7714,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6139,7 +7758,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6164,7 +7783,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6186,7 +7805,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6208,7 +7827,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6235,7 +7854,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6260,7 +7879,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6282,7 +7901,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2189,7 +2189,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="M9" sqref="M9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,14 +2269,24 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
       <c r="H5" s="16">
         <f>SUM(C5:G5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="27" t="s">
@@ -2297,25 +2307,35 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
       <c r="H6" s="16">
         <f>SUM(C6:G6)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="16">
         <f>H5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="16">
         <f>H6</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>6</v>
@@ -2433,11 +2453,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4695,7 +4715,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4705,7 +4725,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5170,13 +5190,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5638,13 +5658,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6108,13 +6128,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2188,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9:N9"/>
     </sheetView>
   </sheetViews>
@@ -2646,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,11 +2847,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -2881,11 +2881,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2960,14 +2960,24 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2975,14 +2985,24 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4715,7 +4735,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4725,7 +4745,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5190,13 +5210,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5658,13 +5678,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6128,13 +6148,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -31,9 +31,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2647,7 +2647,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
@@ -2973,11 +2973,11 @@
         <v>5</v>
       </c>
       <c r="G13" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4735,7 +4735,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4745,7 +4745,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5210,13 +5210,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5678,13 +5678,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6148,13 +6148,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2646,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -2867,25 +2867,35 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -2899,14 +2909,24 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4735,7 +4755,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4745,7 +4765,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5210,13 +5230,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5678,13 +5698,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6148,13 +6168,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2646,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,11 +3285,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -3319,11 +3319,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3400,12 +3400,18 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3415,12 +3421,18 @@
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3483,7 +3495,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,7 +3695,7 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
@@ -3717,7 +3729,7 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
@@ -3796,14 +3808,16 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="16">
+        <v>2</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3811,7 +3825,9 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -4755,7 +4771,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4765,7 +4781,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5230,13 +5246,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5698,13 +5714,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6168,13 +6184,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3084,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,11 +3246,11 @@
       </c>
       <c r="M7" s="16">
         <f>H9</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N7" s="16">
         <f>H10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -3305,25 +3305,35 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3337,14 +3347,24 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3494,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,11 +3735,21 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
         <v>0</v>
@@ -3747,11 +3777,21 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
       <c r="H10" s="16">
         <f>SUM(C10:G10)</f>
         <v>0</v>
@@ -3897,7 +3937,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,7 +4811,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4781,7 +4821,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5246,13 +5286,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5714,13 +5754,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6184,13 +6224,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,13 @@
     <sheet name="Tally_20171214" sheetId="14" r:id="rId14"/>
     <sheet name="Tally_20171221" sheetId="15" r:id="rId15"/>
     <sheet name="Tally_20171228" sheetId="16" r:id="rId16"/>
+    <sheet name="Tally_20180104" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -349,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -405,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,7 +841,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -878,7 +882,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -921,7 +925,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -963,7 +967,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1009,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1052,7 +1056,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1084,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1109,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1134,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1160,7 +1164,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1192,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1217,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1243,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1249,7 +1253,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1347,7 +1351,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1387,7 +1391,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1433,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1472,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1511,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1551,7 +1555,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1576,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1598,7 +1602,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1624,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1647,7 +1651,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +1676,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1698,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1809,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1845,7 +1849,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1887,7 +1891,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1930,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1965,7 +1969,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2009,7 +2013,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2034,7 +2038,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2056,7 +2060,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2082,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2105,7 +2109,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2130,7 +2134,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2156,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2267,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2303,7 +2307,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2345,7 +2349,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2388,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +2427,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2467,7 +2471,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2492,7 +2496,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2518,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2540,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2563,7 +2567,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2592,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2610,7 +2614,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2721,7 +2725,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2751,7 +2755,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2783,7 +2787,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2826,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2861,7 +2865,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2905,7 +2909,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2934,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2952,7 +2956,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2978,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3001,7 +3005,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3030,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3052,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3159,7 +3163,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3189,7 +3193,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +3225,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +3264,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3299,7 +3303,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3343,7 +3347,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3368,7 +3372,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3390,7 +3394,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3416,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3435,7 +3439,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3456,7 +3460,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3514,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,7 +3593,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3619,7 +3623,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3651,7 +3655,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3690,7 +3694,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3715,11 +3719,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -3729,7 +3733,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3759,11 +3763,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -3773,7 +3777,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3798,7 +3802,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3820,7 +3824,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3851,34 +3855,50 @@
       <c r="C13" s="16">
         <v>2</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="16">
         <v>0</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +3920,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3937,7 +3957,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,7 +4031,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4041,7 +4061,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4073,7 +4093,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4112,7 +4132,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4137,11 +4157,11 @@
       </c>
       <c r="M8" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N8" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -4151,7 +4171,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4171,11 +4191,11 @@
       </c>
       <c r="M9" s="16">
         <f>SUM(M6:M8)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>6</v>
@@ -4185,7 +4205,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4200,7 +4220,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4242,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4244,39 +4264,59 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>6</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4298,7 +4338,425 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43104</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43105</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43108</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43109</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H13</f>
+        <v>14</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H14</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM(M6:M8)</f>
+        <v>14</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4417,7 +4875,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4456,7 +4914,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4497,7 +4955,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4539,7 +4997,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4581,7 +5039,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4628,7 +5086,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4656,7 +5114,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4681,7 +5139,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4706,7 +5164,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4734,7 +5192,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4760,7 +5218,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4785,7 +5243,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4811,7 +5269,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4821,7 +5279,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4916,7 +5374,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4956,7 +5414,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4998,7 +5456,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5037,7 +5495,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5076,7 +5534,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5120,7 +5578,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5145,7 +5603,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +5625,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5189,7 +5647,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5216,7 +5674,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5241,7 +5699,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5263,7 +5721,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5286,13 +5744,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5386,7 +5844,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5426,7 +5884,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5468,7 +5926,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5507,7 +5965,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5546,7 +6004,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5590,7 +6048,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5613,7 +6071,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5635,7 +6093,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5657,7 +6115,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5684,7 +6142,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5709,7 +6167,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5731,7 +6189,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5754,13 +6212,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5854,7 +6312,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5894,7 +6352,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5936,7 +6394,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +6433,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6014,7 +6472,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6058,7 +6516,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6083,7 +6541,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6105,7 +6563,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6127,7 +6585,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6154,7 +6612,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6179,7 +6637,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6201,7 +6659,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6224,13 +6682,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6324,7 +6782,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6362,7 +6820,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6402,7 +6860,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6441,7 +6899,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6480,7 +6938,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6522,7 +6980,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6545,7 +7003,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6567,7 +7025,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6589,7 +7047,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6616,7 +7074,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6641,7 +7099,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6663,7 +7121,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6774,7 +7232,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6804,7 +7262,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6836,7 +7294,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6875,7 +7333,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6914,7 +7372,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6958,7 +7416,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6983,7 +7441,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7005,7 +7463,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7027,7 +7485,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7054,7 +7512,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7079,7 +7537,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7101,7 +7559,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7212,7 +7670,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7252,7 +7710,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7294,7 +7752,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7333,7 +7791,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7372,7 +7830,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7416,7 +7874,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7441,7 +7899,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7463,7 +7921,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7485,7 +7943,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7512,7 +7970,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7537,7 +7995,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +8017,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7670,7 +8128,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7710,7 +8168,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7752,7 +8210,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7791,7 +8249,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7830,7 +8288,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7874,7 +8332,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7899,7 +8357,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7921,7 +8379,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7943,7 +8401,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7970,7 +8428,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7995,7 +8453,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8017,7 +8475,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -1243,7 +1243,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1253,7 +1253,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4375,7 +4375,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,14 +4455,24 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
       <c r="H5" s="16">
         <f>SUM(C5:G5)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="29" t="s">
@@ -4483,25 +4493,35 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="16">
         <f>SUM(C6:G6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="16">
         <f>H5</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N6" s="16">
         <f>H6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>6</v>
@@ -4532,15 +4552,15 @@
       </c>
       <c r="H7" s="16"/>
       <c r="L7" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M7" s="16">
-        <f>H9</f>
-        <v>0</v>
+        <f>H13</f>
+        <v>14</v>
       </c>
       <c r="N7" s="16">
-        <f>H10</f>
-        <v>0</v>
+        <f>H14</f>
+        <v>3</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -4570,16 +4590,16 @@
         <v>6</v>
       </c>
       <c r="H8" s="16"/>
-      <c r="L8" s="5" t="s">
-        <v>1</v>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="M8" s="16">
-        <f>H13</f>
-        <v>14</v>
+        <f>SUM(M6:M7)</f>
+        <v>21</v>
       </c>
       <c r="N8" s="16">
-        <f>H14</f>
-        <v>3</v>
+        <f>SUM(N6:N7)</f>
+        <v>5</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -4603,23 +4623,6 @@
       <c r="H9" s="16">
         <f>SUM(C9:G9)</f>
         <v>0</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="16">
-        <f>SUM(M6:M8)</f>
-        <v>14</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" ref="N9" si="2">SUM(N6:N8)</f>
-        <v>3</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5269,7 +5272,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5279,7 +5282,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5744,13 +5747,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6212,13 +6215,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6682,13 +6685,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SSIS-Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSIS-Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,14 @@
     <sheet name="Tally_20171221" sheetId="15" r:id="rId15"/>
     <sheet name="Tally_20171228" sheetId="16" r:id="rId16"/>
     <sheet name="Tally_20180104" sheetId="17" r:id="rId17"/>
+    <sheet name="Tally_201801011" sheetId="18" r:id="rId18"/>
+    <sheet name="Tally_201801018" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -350,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,7 +846,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -882,7 +887,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -925,7 +930,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -967,7 +972,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1014,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1056,7 +1061,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1089,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1114,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1134,7 +1139,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1164,7 +1169,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1197,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1222,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1248,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1253,7 +1258,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1351,7 +1356,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1391,7 +1396,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1433,7 +1438,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1477,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1516,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1555,7 +1560,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1580,7 +1585,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1607,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1629,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1651,7 +1656,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1676,7 +1681,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1814,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1849,7 +1854,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1891,7 +1896,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1930,7 +1935,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1974,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2013,7 +2018,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2038,7 +2043,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2060,7 +2065,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2087,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2109,7 +2114,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2139,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2161,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2272,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2307,7 +2312,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2349,7 +2354,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2388,7 +2393,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2427,7 +2432,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2471,7 +2476,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2496,7 +2501,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2518,7 +2523,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2545,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2567,7 +2572,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2592,7 +2597,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2614,7 +2619,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2730,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2755,7 +2760,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2787,7 +2792,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2826,7 +2831,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2865,7 +2870,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2909,7 +2914,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2934,7 +2939,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2956,7 +2961,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2983,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3005,7 +3010,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3030,7 +3035,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3057,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3163,7 +3168,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3193,7 +3198,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3225,7 +3230,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3264,7 +3269,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3303,7 +3308,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3347,7 +3352,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3372,7 +3377,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3394,7 +3399,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3416,7 +3421,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3439,7 +3444,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3465,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3482,7 +3487,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3593,7 +3598,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3623,7 +3628,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3655,7 +3660,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3694,7 +3699,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3733,7 +3738,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3777,7 +3782,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3802,7 +3807,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3824,7 +3829,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3846,7 +3851,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3873,7 +3878,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3903,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3920,7 +3925,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4031,7 +4036,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4061,7 +4066,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4093,7 +4098,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4132,7 +4137,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4176,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4205,7 +4210,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4220,7 +4225,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4242,7 +4247,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4264,7 +4269,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4291,7 +4296,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4316,7 +4321,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4338,7 +4343,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4374,7 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -4449,7 +4454,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4489,7 +4494,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4531,7 +4536,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4570,7 +4575,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4609,7 +4614,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4626,7 +4631,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4641,7 +4646,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4663,7 +4668,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4685,7 +4690,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4712,7 +4717,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4737,7 +4742,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4759,7 +4764,789 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43111</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43112</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43115</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43116</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H13</f>
+        <v>21</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H14</f>
+        <v>6</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM(M6:M7)</f>
+        <v>21</v>
+      </c>
+      <c r="N8" s="16">
+        <f>SUM(N6:N7)</f>
+        <v>6</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="16">
+        <v>8</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43118</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43119</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43122</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43123</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM(M6:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>SUM(N6:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +5665,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4917,7 +5704,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4958,7 +5745,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5787,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5042,7 +5829,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5089,7 +5876,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5117,7 +5904,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5142,7 +5929,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5954,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5195,7 +5982,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5221,7 +6008,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5246,7 +6033,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5272,7 +6059,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5282,7 +6069,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5377,7 +6164,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5417,7 +6204,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5459,7 +6246,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5498,7 +6285,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5537,7 +6324,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5581,7 +6368,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5606,7 +6393,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5628,7 +6415,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5650,7 +6437,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5677,7 +6464,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5702,7 +6489,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5724,7 +6511,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5747,13 +6534,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5847,7 +6634,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5887,7 +6674,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5929,7 +6716,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5968,7 +6755,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6007,7 +6794,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6051,7 +6838,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6074,7 +6861,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +6883,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6118,7 +6905,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6145,7 +6932,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6170,7 +6957,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6192,7 +6979,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6215,13 +7002,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6315,7 +7102,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6355,7 +7142,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6397,7 +7184,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6436,7 +7223,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6475,7 +7262,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6519,7 +7306,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6544,7 +7331,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6566,7 +7353,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6588,7 +7375,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6615,7 +7402,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6640,7 +7427,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6662,7 +7449,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6685,13 +7472,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -6785,7 +7572,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6823,7 +7610,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6863,7 +7650,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6902,7 +7689,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6941,7 +7728,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6983,7 +7770,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7006,7 +7793,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7028,7 +7815,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7050,7 +7837,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7077,7 +7864,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7102,7 +7889,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7124,7 +7911,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7235,7 +8022,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7265,7 +8052,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7297,7 +8084,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7336,7 +8123,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7375,7 +8162,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7419,7 +8206,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7444,7 +8231,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +8253,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7488,7 +8275,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7515,7 +8302,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +8327,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7562,7 +8349,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7673,7 +8460,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7713,7 +8500,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7755,7 +8542,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7794,7 +8581,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7833,7 +8620,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7877,7 +8664,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7902,7 +8689,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7924,7 +8711,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7946,7 +8733,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7973,7 +8760,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7998,7 +8785,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8020,7 +8807,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -8131,7 +8918,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8171,7 +8958,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8213,7 +9000,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8252,7 +9039,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -8291,7 +9078,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8335,7 +9122,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8360,7 +9147,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8382,7 +9169,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8404,7 +9191,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8431,7 +9218,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8456,7 +9243,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8478,7 +9265,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Tally_20180104" sheetId="17" r:id="rId17"/>
     <sheet name="Tally_201801011" sheetId="18" r:id="rId18"/>
     <sheet name="Tally_201801018" sheetId="19" r:id="rId19"/>
+    <sheet name="Tally_20180125" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -352,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,7 +850,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -887,7 +891,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -930,7 +934,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -972,7 +976,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1018,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1061,7 +1065,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1093,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1118,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1143,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1169,7 +1173,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1201,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1226,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1360,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1396,7 +1400,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1442,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1481,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1520,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1560,7 +1564,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1589,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1611,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1629,7 +1633,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1656,7 +1660,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1685,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1707,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1818,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1854,7 +1858,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1900,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1935,7 +1939,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +1978,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2018,7 +2022,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2047,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2114,7 +2118,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2143,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2165,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2276,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2312,7 +2316,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2354,7 +2358,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2397,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2436,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2476,7 +2480,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2501,7 +2505,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2527,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2545,7 +2549,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2572,7 +2576,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2597,7 +2601,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2619,7 +2623,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2730,7 +2734,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2760,7 +2764,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2792,7 +2796,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2831,7 +2835,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2874,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2914,7 +2918,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +2943,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2961,7 +2965,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2983,7 +2987,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3010,7 +3014,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3035,7 +3039,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +3061,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3168,7 +3172,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3198,7 +3202,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3230,7 +3234,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3269,7 +3273,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3308,7 +3312,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3352,7 +3356,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3381,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3399,7 +3403,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3425,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3444,7 +3448,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3465,7 +3469,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3487,7 +3491,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3598,7 +3602,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3628,7 +3632,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3660,7 +3664,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3699,7 +3703,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3738,7 +3742,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3782,7 +3786,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3807,7 +3811,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3829,7 +3833,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3878,7 +3882,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +3907,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3925,7 +3929,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4040,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4066,7 +4070,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4098,7 +4102,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4137,7 +4141,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4176,7 +4180,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4210,7 +4214,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4225,7 +4229,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4247,7 +4251,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4296,7 +4300,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4321,7 +4325,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4343,7 +4347,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4454,7 +4458,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4494,7 +4498,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4536,7 +4540,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4575,7 +4579,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4614,7 +4618,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4631,7 +4635,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4646,7 +4650,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4668,7 +4672,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4690,7 +4694,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4717,7 +4721,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4742,7 +4746,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4764,7 +4768,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4800,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4875,7 +4879,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4905,7 +4909,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4937,7 +4941,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4976,7 +4980,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +5019,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5032,7 +5036,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5047,7 +5051,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5069,7 +5073,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5091,7 +5095,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5118,7 +5122,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5143,7 +5147,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5165,7 +5169,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5276,7 +5280,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5306,7 +5310,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5338,7 +5342,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5377,7 +5381,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5416,7 +5420,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5433,7 +5437,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5448,7 +5452,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5470,7 +5474,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5492,7 +5496,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5509,7 +5513,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5524,7 +5528,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5546,7 +5550,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5669,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5704,7 +5708,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5745,7 +5749,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5787,7 +5791,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5833,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5876,7 +5880,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5904,7 +5908,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5929,7 +5933,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5954,7 +5958,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5982,7 +5986,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6008,7 +6012,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6033,7 +6037,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6085,6 +6089,407 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43125</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43126</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43129</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43130</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H13</f>
+        <v>13</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H14</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM(M6:M7)</f>
+        <v>13</v>
+      </c>
+      <c r="N8" s="16">
+        <f>SUM(N6:N7)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
@@ -6164,7 +6569,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6204,7 +6609,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6246,7 +6651,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6285,7 +6690,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6324,7 +6729,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6368,7 +6773,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6393,7 +6798,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6415,7 +6820,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6437,7 +6842,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6464,7 +6869,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6489,7 +6894,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6511,7 +6916,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6634,7 +7039,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6674,7 +7079,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6716,7 +7121,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6755,7 +7160,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6794,7 +7199,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6838,7 +7243,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6861,7 +7266,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6883,7 +7288,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6905,7 +7310,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6932,7 +7337,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6957,7 +7362,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +7384,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7102,7 +7507,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7142,7 +7547,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7184,7 +7589,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7223,7 +7628,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7667,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7306,7 +7711,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7331,7 +7736,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7353,7 +7758,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7375,7 +7780,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7402,7 +7807,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7427,7 +7832,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7449,7 +7854,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7572,7 +7977,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7610,7 +8015,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7650,7 +8055,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7689,7 +8094,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7728,7 +8133,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7770,7 +8175,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7793,7 +8198,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7815,7 +8220,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7837,7 +8242,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7864,7 +8269,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7889,7 +8294,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7911,7 +8316,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -8022,7 +8427,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8052,7 +8457,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8084,7 +8489,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8123,7 +8528,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -8162,7 +8567,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8206,7 +8611,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8231,7 +8636,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8253,7 +8658,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8275,7 +8680,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8302,7 +8707,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8327,7 +8732,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8349,7 +8754,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -8460,7 +8865,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8500,7 +8905,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8542,7 +8947,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8581,7 +8986,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -8620,7 +9025,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8664,7 +9069,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8689,7 +9094,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8711,7 +9116,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8733,7 +9138,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8760,7 +9165,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8785,7 +9190,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8807,7 +9212,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -8918,7 +9323,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8958,7 +9363,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -9000,7 +9405,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -9039,7 +9444,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -9078,7 +9483,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9122,7 +9527,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -9147,7 +9552,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9169,7 +9574,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -9191,7 +9596,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9218,7 +9623,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -9243,7 +9648,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -9265,7 +9670,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>

--- a/Ticket_Tally_Sheet.xlsx
+++ b/Ticket_Tally_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Tally_20170914" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,15 @@
     <sheet name="Tally_201801011" sheetId="18" r:id="rId18"/>
     <sheet name="Tally_201801018" sheetId="19" r:id="rId19"/>
     <sheet name="Tally_20180125" sheetId="20" r:id="rId20"/>
+    <sheet name="Tally_20180201" sheetId="21" r:id="rId21"/>
+    <sheet name="Tally_20180208" sheetId="22" r:id="rId22"/>
+    <sheet name="Tally_20180215" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
+    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
     <customWorkbookView name="Benson Fabonan - Personal View" guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="4"/>
-    <customWorkbookView name="Manuel Alberto Lomotan - Personal View" guid="{5DD559DC-FA50-4E4A-9646-8FEE718DD279}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="2"/>
-    <customWorkbookView name="Jeric Ryan De Josef - Personal View" guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1019" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="10">
   <si>
     <t>Benson Fabonan</t>
   </si>
@@ -353,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,7 +856,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -891,7 +897,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -934,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -976,7 +982,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1024,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1065,7 +1071,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1099,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1118,7 +1124,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1149,7 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1173,7 +1179,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1207,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1232,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1258,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1262,7 +1268,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="L18" sqref="L18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1360,7 +1366,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1400,7 +1406,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +1448,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1487,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1526,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1564,7 +1570,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1589,7 +1595,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +1617,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1639,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1660,7 +1666,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1691,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1713,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1824,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1858,7 +1864,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1906,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1945,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +1984,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2022,7 +2028,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2047,7 +2053,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2075,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2091,7 +2097,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2118,7 +2124,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +2149,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2171,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2282,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2316,7 +2322,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2358,7 +2364,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2397,7 +2403,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2442,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2480,7 +2486,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2511,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2527,7 +2533,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2555,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2576,7 +2582,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2607,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2623,7 +2629,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2734,7 +2740,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2764,7 +2770,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2802,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2841,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2880,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2918,7 +2924,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2943,7 +2949,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2971,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +2993,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3014,7 +3020,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3039,7 +3045,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +3067,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3172,7 +3178,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3202,7 +3208,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3240,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3273,7 +3279,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3318,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3356,7 +3362,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3381,7 +3387,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3403,7 +3409,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3431,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3448,7 +3454,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3469,7 +3475,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3491,7 +3497,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3528,7 +3534,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3602,7 +3608,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3632,7 +3638,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3664,7 +3670,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3703,7 +3709,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3742,7 +3748,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3786,7 +3792,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3811,7 +3817,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3833,7 +3839,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3855,7 +3861,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3882,7 +3888,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3907,7 +3913,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3929,7 +3935,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4040,7 +4046,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4070,7 +4076,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4102,7 +4108,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4141,7 +4147,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4186,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4214,7 +4220,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4229,7 +4235,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4251,7 +4257,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4273,7 +4279,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4300,7 +4306,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4331,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4347,7 +4353,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4458,7 +4464,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4498,7 +4504,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4540,7 +4546,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4579,7 +4585,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4618,7 +4624,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4635,7 +4641,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4650,7 +4656,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4672,7 +4678,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4694,7 +4700,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4721,7 +4727,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4746,7 +4752,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4768,7 +4774,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4879,7 +4885,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4909,7 +4915,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4941,7 +4947,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4980,7 +4986,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5019,7 +5025,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5036,7 +5042,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5057,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5079,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5095,7 +5101,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5122,7 +5128,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5147,7 +5153,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5169,7 +5175,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5206,7 +5212,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,7 +5286,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5310,7 +5316,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5342,7 +5348,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5367,11 +5373,11 @@
       </c>
       <c r="M7" s="16">
         <f>H13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N7" s="16">
         <f>H14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>6</v>
@@ -5381,7 +5387,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5406,11 +5412,11 @@
       </c>
       <c r="M8" s="16">
         <f>SUM(M6:M7)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N8" s="16">
         <f>SUM(N6:N7)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>6</v>
@@ -5420,7 +5426,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5437,7 +5443,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5452,7 +5458,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5474,7 +5480,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5496,39 +5502,59 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
       <c r="H13" s="16">
         <f>SUM(C13:G13)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
       <c r="H14" s="16">
         <f>SUM(C14:G14)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5550,7 +5576,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5669,7 +5695,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5708,7 +5734,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5749,7 +5775,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +5817,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5833,7 +5859,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5880,7 +5906,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5908,7 +5934,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5933,7 +5959,7 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5958,7 +5984,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5986,7 +6012,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6012,7 +6038,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6037,7 +6063,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6063,7 +6089,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6073,7 +6099,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
       <selection activeCell="H11" sqref="H11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6093,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,7 +6194,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6198,7 +6224,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6230,7 +6256,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6269,7 +6295,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6308,7 +6334,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6325,7 +6351,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6340,7 +6366,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6362,7 +6388,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6384,7 +6410,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6411,7 +6437,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6436,7 +6462,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6458,7 +6484,1210 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43132</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43133</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43136</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43137</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H13</f>
+        <v>12</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H14</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM(M6:M7)</f>
+        <v>12</v>
+      </c>
+      <c r="N8" s="16">
+        <f>SUM(N6:N7)</f>
+        <v>2</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43139</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43140</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43143</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43144</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H13</f>
+        <v>5</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H14</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM(M6:M7)</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="16">
+        <f>SUM(N6:N7)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>5</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>B1</f>
+        <v>43146</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3+1</f>
+        <v>43147</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3+3</f>
+        <v>43150</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:G3" si="0">E3+1</f>
+        <v>43151</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="str">
+        <f>TEXT(C3,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:G4" si="1">TEXT(D3,"DDDD")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM(M6:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f>SUM(N6:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6569,7 +7798,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6609,7 +7838,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6651,7 +7880,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6690,7 +7919,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6729,7 +7958,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6773,7 +8002,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6798,7 +8027,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6820,7 +8049,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6842,7 +8071,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6869,7 +8098,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6894,7 +8123,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +8145,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6939,13 +8168,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F24" sqref="F24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F24" sqref="F24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -7039,7 +8268,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7079,7 +8308,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7121,7 +8350,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7160,7 +8389,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7199,7 +8428,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7243,7 +8472,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7266,7 +8495,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7288,7 +8517,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7310,7 +8539,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7337,7 +8566,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7362,7 +8591,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7384,7 +8613,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7407,13 +8636,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="I31" sqref="I31"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -7507,7 +8736,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7547,7 +8776,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7589,7 +8818,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7628,7 +8857,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7667,7 +8896,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7711,7 +8940,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7736,7 +8965,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7758,7 +8987,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7780,7 +9009,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7807,7 +9036,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7832,7 +9061,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7854,7 +9083,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7877,13 +9106,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
-      <selection activeCell="D25" sqref="D25"/>
+    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
+      <selection activeCell="F28" sqref="F28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{706D43D0-A44B-4E4B-BDBF-40C1EE9045CA}">
-      <selection activeCell="F28" sqref="F28"/>
+    <customSheetView guid="{6568F0E6-77C6-45C8-808D-B67B20EB14DF}">
+      <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -7977,7 +9206,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8015,7 +9244,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8055,7 +9284,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8094,7 +9323,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -8133,7 +9362,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8175,7 +9404,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8198,7 +9427,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8220,7 +9449,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8242,7 +9471,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8269,7 +9498,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8294,7 +9523,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8316,7 +9545,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -8427,7 +9656,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8457,7 +9686,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8489,7 +9718,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8528,7 +9757,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -8567,7 +9796,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8611,7 +9840,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8636,7 +9865,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8658,7 +9887,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8680,7 +9909,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8707,7 +9936,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8732,7 +9961,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8754,7 +9983,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -8865,7 +10094,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8905,7 +10134,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8947,7 +10176,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8986,7 +10215,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -9025,7 +10254,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9069,7 +10298,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -9094,7 +10323,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9116,7 +10345,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -9138,7 +10367,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9165,7 +10394,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -9190,7 +10419,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -9212,7 +10441,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -9323,7 +10552,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -9363,7 +10592,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -9405,7 +10634,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -9444,7 +10673,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -9483,7 +10712,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9527,7 +10756,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -9552,7 +10781,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9574,7 +10803,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -9596,7 +10825,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9623,7 +10852,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -9648,7 +10877,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -9670,7 +10899,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
